--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_8_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_8_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>183026.4285539308</v>
+        <v>196752.786691349</v>
       </c>
     </row>
     <row r="7">
@@ -26314,10 +26316,10 @@
         <v>75255.18387201249</v>
       </c>
       <c r="C2" t="n">
-        <v>75255.18387201249</v>
+        <v>75255.18387201248</v>
       </c>
       <c r="D2" t="n">
-        <v>75255.18387201249</v>
+        <v>75255.18387201248</v>
       </c>
       <c r="E2" t="n">
         <v>80024.38370490454</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="C4" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="D4" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="E4" t="n">
         <v>25483.7760014399</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1375.378340566072</v>
+        <v>-1375.378340566065</v>
       </c>
       <c r="C6" t="n">
-        <v>-1375.378340566072</v>
+        <v>-1375.37834056608</v>
       </c>
       <c r="D6" t="n">
-        <v>-1375.378340566072</v>
+        <v>-1375.37834056608</v>
       </c>
       <c r="E6" t="n">
-        <v>-82171.00440154367</v>
+        <v>-82171.00440154373</v>
       </c>
       <c r="F6" t="n">
         <v>50928.99559845632</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_8_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_8_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>196752.786691349</v>
+        <v>71642.88789387231</v>
       </c>
     </row>
     <row r="7">
@@ -26316,13 +26316,13 @@
         <v>75255.18387201249</v>
       </c>
       <c r="C2" t="n">
-        <v>75255.18387201248</v>
+        <v>75255.18387201249</v>
       </c>
       <c r="D2" t="n">
         <v>75255.18387201248</v>
       </c>
       <c r="E2" t="n">
-        <v>80024.38370490454</v>
+        <v>80024.38370490453</v>
       </c>
       <c r="F2" t="n">
         <v>80024.38370490454</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1375.378340566065</v>
+        <v>-16526.05231060083</v>
       </c>
       <c r="C6" t="n">
-        <v>-1375.37834056608</v>
+        <v>-16526.05231060083</v>
       </c>
       <c r="D6" t="n">
-        <v>-1375.37834056608</v>
+        <v>-16526.05231060084</v>
       </c>
       <c r="E6" t="n">
-        <v>-82171.00440154373</v>
+        <v>-96981.02124065765</v>
       </c>
       <c r="F6" t="n">
-        <v>50928.99559845632</v>
+        <v>36118.97875934241</v>
       </c>
       <c r="G6" t="n">
-        <v>50928.99559845632</v>
+        <v>36118.97875934241</v>
       </c>
       <c r="H6" t="n">
-        <v>50928.99559845632</v>
+        <v>36118.97875934241</v>
       </c>
       <c r="I6" t="n">
-        <v>50928.99559845632</v>
+        <v>36118.97875934241</v>
       </c>
       <c r="J6" t="n">
-        <v>50928.99559845632</v>
+        <v>36118.97875934241</v>
       </c>
       <c r="K6" t="n">
-        <v>50928.99559845632</v>
+        <v>36118.97875934241</v>
       </c>
       <c r="L6" t="n">
-        <v>50928.99559845632</v>
+        <v>36118.97875934241</v>
       </c>
       <c r="M6" t="n">
-        <v>50928.99559845632</v>
+        <v>36118.97875934241</v>
       </c>
       <c r="N6" t="n">
-        <v>50928.99559845632</v>
+        <v>36118.97875934241</v>
       </c>
       <c r="O6" t="n">
-        <v>50928.99559845632</v>
+        <v>36118.97875934241</v>
       </c>
       <c r="P6" t="n">
-        <v>50928.99559845632</v>
+        <v>36118.97875934241</v>
       </c>
     </row>
   </sheetData>
